--- a/baseweb/WebContent/upload/template/大连市分库预算收支存分科目统计表[中央].xlsx
+++ b/baseweb/WebContent/upload/template/大连市分库预算收支存分科目统计表[中央].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="20355" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="中央" sheetId="1" r:id="rId1"/>
@@ -184,14 +184,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,62 +217,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,22 +233,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,9 +263,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,8 +300,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,16 +325,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,25 +370,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,91 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,49 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,6 +805,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -821,13 +829,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,26 +874,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,32 +894,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,148 +907,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/baseweb/WebContent/upload/template/大连市分库预算收支存分科目统计表[中央].xlsx
+++ b/baseweb/WebContent/upload/template/大连市分库预算收支存分科目统计表[中央].xlsx
@@ -176,7 +176,7 @@
     <t>(T0206)--国有资本经营预算支出合计</t>
   </si>
   <si>
-    <t>国库库存</t>
+    <t>(T00)--国库库存</t>
   </si>
 </sst>
 </file>
@@ -184,12 +184,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,6 +217,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -226,7 +233,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -235,22 +242,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,32 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,16 +317,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,7 +348,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +370,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,13 +388,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,79 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,73 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,6 +801,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,22 +839,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,26 +871,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -893,15 +902,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -910,10 +910,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,133 +922,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,25 +1105,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,22 +1132,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1507,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
